--- a/src/test/resources/data/credentials.xlsx
+++ b/src/test/resources/data/credentials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilshanth\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilshanth\Documents\GitHub\eclipse\automation\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F78DCB9-4691-4F8C-B68F-F8FD2FC6A11E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A04F87E-794F-467F-B6D6-4FF2E2A76FD9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{73756EE1-ADA1-4173-A492-9CEC09BF94D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Admin123</t>
+  </si>
+  <si>
+    <t>natsu</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +419,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
